--- a/Mensajes_Antonio_limpio.xlsx
+++ b/Mensajes_Antonio_limpio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="180">
   <si>
     <t>Nombre</t>
   </si>
@@ -40,12 +40,12 @@
     <t xml:space="preserve">Miguel </t>
   </si>
   <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>SALVADOR</t>
-  </si>
-  <si>
     <t>Alberto</t>
   </si>
   <si>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">Victoria </t>
   </si>
   <si>
+    <t>María</t>
+  </si>
+  <si>
     <t>Pablo</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
     <t>Sergio</t>
   </si>
   <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
     <t>Emilio</t>
   </si>
   <si>
@@ -136,36 +136,36 @@
     <t>Felipe</t>
   </si>
   <si>
+    <t xml:space="preserve">Luis </t>
+  </si>
+  <si>
+    <t>Veronica Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verónica </t>
+  </si>
+  <si>
+    <t>Ainara</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
     <t>Luis</t>
   </si>
   <si>
-    <t xml:space="preserve">Luis </t>
-  </si>
-  <si>
-    <t>Veronica Maria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verónica </t>
-  </si>
-  <si>
-    <t>Ainara</t>
-  </si>
-  <si>
-    <t>Carmen</t>
-  </si>
-  <si>
-    <t>Jaime</t>
-  </si>
-  <si>
-    <t>Paulo</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Stella</t>
-  </si>
-  <si>
     <t>Antonio</t>
   </si>
   <si>
@@ -184,9 +184,6 @@
     <t>Gioia</t>
   </si>
   <si>
-    <t>maria</t>
-  </si>
-  <si>
     <t>ARIAS BERMUDEZ</t>
   </si>
   <si>
@@ -196,15 +193,15 @@
     <t>Arias</t>
   </si>
   <si>
+    <t>Artacho</t>
+  </si>
+  <si>
     <t>Aso</t>
   </si>
   <si>
     <t>Aso Miranda</t>
   </si>
   <si>
-    <t>BARDO</t>
-  </si>
-  <si>
     <t>Benbunan</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
     <t xml:space="preserve">Entrecanales </t>
   </si>
   <si>
+    <t>Fanjul</t>
+  </si>
+  <si>
     <t>Fernandez Alvarez</t>
   </si>
   <si>
@@ -277,9 +277,6 @@
     <t>Hojman</t>
   </si>
   <si>
-    <t>Iborra  Broseta</t>
-  </si>
-  <si>
     <t>Iborra Broseta</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>Nebrera</t>
   </si>
   <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>París</t>
   </si>
   <si>
@@ -374,9 +368,6 @@
   </si>
   <si>
     <t>de la Torre</t>
-  </si>
-  <si>
-    <t>fanjul</t>
   </si>
   <si>
     <t>Querido Antonio,
@@ -400,6 +391,9 @@
 Miguel Arias</t>
   </si>
   <si>
+    <t>Antonio, desde que te conocí en Tokyo en 2019 ya vi que eras un líder nato y una gran persona. Muchas gracias por habernos dado tanto. Gracias a tu liderazgo has conseguido impactar positivamente muchas vidas. Has servido a la comunidad como nadie. Aquí nos tienes siempre. Te vamos a echar mucho de menos, crack! Te queremos! Abrazo fuerte</t>
+  </si>
+  <si>
     <t>Has conseguido llevar Endeavor España a otra dimensión! Gracias por todo lo que has aportado al emprendimiento  y gracias por haber contado con Andbank. Muchos éxitos en tu nueva etapa!</t>
   </si>
   <si>
@@ -442,6 +436,11 @@
     <t>Querido Antonio, 
 Te vamos a echar muchísimo de menos, espero que nos vistes con mucha pero que mucha frecuencia en la ofi. Te deseo lo mejor en esta nueva aventura, que es un claro ejemplo del que sigue lo consigue. Un abrazo enorme! 
 Vic</t>
+  </si>
+  <si>
+    <t>Te seguiremos acompañando allá donde vayas. 
+Un beso enorme y mucha suerte!! 
+María Fanjul</t>
   </si>
   <si>
     <t>Antonio! Justo tenía que estar en YPO y no pude venir, pero quería escribirte unas palabras. Recuerdo la primera vez que te vi hace ya casi 20 años en las oficinas de BCG cuando me dijiste como si nadad "me voy al MIT" y pensé "menudo crack" jaja... Quería darte las GRACIAS por lo que has hecho por el ecosistema emprendedor en España. Has llevado Endeavor al siguiente nivel de crecimiento y reputación y dejado una huella en muchísima gente! En lo personal ha sido un auténtico placer trabajar contigo. Pocas personas conozco con tanta distancia entre su brillantez y su ego. Tu generosidad con los demás es un ejemplo. Mucha suerte en esta nueva fase y espero poder conservar la amistad mucho tiempo! Aquí me tienes para lo que necesites! (compartimos consejos de emprender y de familia jajaja)</t>
@@ -497,10 +496,6 @@
     <t>Antonio querido, qué decirte... cuántas cosas vivimos juntos y cuánto aprendí de vos. Siempre te lo dije y te lo volveré a repetir, fuiste y serás un gran mentor para mi y estoy eternamente agradecida en cómo me abriste las puertas y me ayudaste a "volar". Es increíble todo lo que lograste estos años y el crecimiento exponencial que tuvo la organización gracias a vos y el gran equipo que armaste y lideraste. Se te va a extrañar mucho pero pero pero: once Endeavor, always Endeavor</t>
   </si>
   <si>
-    <t>Gracias por tu ayuda y dedicacion a este gran grupo de locos emprendedores.
-Un abrazo.</t>
-  </si>
-  <si>
     <t>Antonio eres un crack, te ira super bien en tu nuevo proyecto. 
 Gracias por compartir y ayudar tanto estos años. Un abrazo. Lucia.</t>
   </si>
@@ -537,11 +532,6 @@
   </si>
   <si>
     <t>Mucha suerte Antonio, te deseo todo lo mejor en tu nuevo camino. Dejas una comunidad Endeavor fuerte en España, construida en gran medida gracias a tu liderazgo y determinación, y siempre desde la humildad y generosidad. Enhorabuena y un fuerte abrazo!! Pablo Nebrera</t>
-  </si>
-  <si>
-    <t>¡Muchísimas gracias por todos estos años! 
-un fuerte abrazo
-Luis</t>
   </si>
   <si>
     <t>¡Muchísimas gracias por todos estos años!
@@ -599,8 +589,10 @@
 Antonio Serrano</t>
   </si>
   <si>
-    <t xml:space="preserve">Gracias por todo Antonio!
-</t>
+    <t>Querido Antonio,
+Gracias por estos tres años juntos en Endeavor — por tu liderazgo, pero sobre todo por tu cercanía, humanidad y empatía. He y hemos aprendido mucho de ti. Te vamos a echar muchísimo de menos, aunque estoy seguro de que nos veremos pronto (y más de una vez). Eres una grandisima persona.
+Un abrazo enorme y muchísima suerte en todo lo que te espera,
+Ernst</t>
   </si>
   <si>
     <t>Antonio, enhorabuena por el impresionante legado que dejas, y gracias por hacer hueco para que otro pueda disfrutar de este trabajazo :)
@@ -623,21 +615,13 @@
     <t>Gracias por todo lo que has hecho por Endeavor España y por nosotros en CARTO.
 Tu apoyo, visión y generosidad han dejado huella.
 Más allá del trabajo, es un auténtico gusto tenerte cerca. Jatorre!</t>
-  </si>
-  <si>
-    <t>Te seguiremos acompañando allá donde vayas. 
-Un beso enorme y mucha suerte!! 
-María Fanjul</t>
-  </si>
-  <si>
-    <t>https://kvhpaojlvwwetdzqhbqf.supabase.co/storage/v1/object/public/farewell-videos/1754218034795-IMG_5284.MOV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,13 +636,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -693,22 +670,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1001,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1026,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1037,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1051,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1059,10 +1030,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1070,21 +1041,21 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1092,10 +1063,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>184</v>
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1103,10 +1074,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1114,10 +1085,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1125,10 +1096,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1136,10 +1107,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1147,10 +1118,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1158,10 +1129,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1169,10 +1140,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1180,10 +1151,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1191,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1202,10 +1173,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1213,10 +1184,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1224,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1235,10 +1206,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1246,32 +1217,32 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1279,10 +1250,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1290,10 +1261,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1301,65 +1272,65 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1367,10 +1338,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1378,10 +1349,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1389,10 +1360,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1400,10 +1371,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1411,10 +1382,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1422,10 +1393,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1433,10 +1404,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1444,10 +1415,10 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1455,10 +1426,10 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1466,10 +1437,10 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1477,10 +1448,10 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1488,21 +1459,21 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1510,10 +1481,10 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1521,10 +1492,10 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1532,10 +1503,10 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1543,10 +1514,10 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1554,10 +1525,10 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1565,54 +1536,54 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1620,10 +1591,10 @@
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1631,126 +1602,101 @@
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mensajes_Antonio_limpio.xlsx
+++ b/Mensajes_Antonio_limpio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
   <si>
     <t>Nombre</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Artacho</t>
-  </si>
-  <si>
-    <t>Aso</t>
   </si>
   <si>
     <t>Aso Miranda</t>
@@ -972,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +997,7 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1011,7 +1008,7 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1022,7 +1019,7 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1033,7 +1030,7 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1044,7 +1041,7 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1055,12 +1052,12 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -1071,7 +1068,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -1082,7 +1079,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -1093,7 +1090,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -1126,7 +1123,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -1137,7 +1134,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -1159,7 +1156,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -1170,7 +1167,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -1203,7 +1200,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -1214,7 +1211,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -1225,7 +1222,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -1236,7 +1233,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -1247,7 +1244,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>78</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>79</v>
@@ -1269,7 +1266,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>80</v>
@@ -1280,7 +1277,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>81</v>
@@ -1291,7 +1288,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
@@ -1302,7 +1299,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>83</v>
@@ -1313,7 +1310,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>84</v>
@@ -1324,7 +1321,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>85</v>
@@ -1346,10 +1343,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
         <v>149</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>88</v>
@@ -1379,7 +1376,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>89</v>
@@ -1390,7 +1387,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -1401,7 +1398,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>91</v>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>92</v>
@@ -1423,7 +1420,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>93</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>94</v>
@@ -1445,7 +1442,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
         <v>95</v>
@@ -1456,7 +1453,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
         <v>96</v>
@@ -1467,7 +1464,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
         <v>97</v>
@@ -1478,7 +1475,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
@@ -1489,18 +1486,18 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>100</v>
@@ -1511,7 +1508,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
         <v>101</v>
@@ -1522,7 +1519,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
@@ -1533,7 +1530,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>103</v>
@@ -1544,7 +1541,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
         <v>104</v>
@@ -1555,7 +1552,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
@@ -1566,7 +1563,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>106</v>
@@ -1577,7 +1574,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
         <v>107</v>
@@ -1588,7 +1585,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>108</v>
@@ -1599,7 +1596,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
         <v>109</v>
@@ -1610,7 +1607,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
         <v>110</v>
@@ -1621,7 +1618,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>111</v>
@@ -1632,7 +1629,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
         <v>112</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
         <v>113</v>
@@ -1654,7 +1651,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>114</v>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
         <v>115</v>
@@ -1676,24 +1673,13 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>116</v>
       </c>
       <c r="C64" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
